--- a/source/_attachment/2017MachineLearning/图表.xlsx
+++ b/source/_attachment/2017MachineLearning/图表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palance/Dropbox/学习材料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palance/Documents/SubVersions/blog/blog/source/_attachment/2017MachineLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="均匀分布" sheetId="1" r:id="rId1"/>
     <sheet name="正态分布" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="似然函数" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -195,11 +195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2086869072"/>
-        <c:axId val="-2133042976"/>
+        <c:axId val="2129577360"/>
+        <c:axId val="-2027585632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2086869072"/>
+        <c:axId val="2129577360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -306,12 +306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133042976"/>
+        <c:crossAx val="-2027585632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133042976"/>
+        <c:axId val="-2027585632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -322,7 +322,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -363,7 +363,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -417,7 +417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086869072"/>
+        <c:crossAx val="2129577360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -1017,11 +1017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2051102896"/>
-        <c:axId val="-2051861744"/>
+        <c:axId val="-2050651840"/>
+        <c:axId val="-2051492496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2051102896"/>
+        <c:axId val="-2050651840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,13 +1075,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051861744"/>
+        <c:crossAx val="-2051492496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2051861744"/>
+        <c:axId val="-2051492496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1135,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051102896"/>
+        <c:crossAx val="-2050651840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1744,11 +1744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2047177008"/>
-        <c:axId val="-2047100880"/>
+        <c:axId val="-2026517776"/>
+        <c:axId val="-2024979728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2047177008"/>
+        <c:axId val="-2026517776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,13 +1797,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047100880"/>
+        <c:crossAx val="-2024979728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2047100880"/>
+        <c:axId val="-2024979728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1852,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047177008"/>
+        <c:crossAx val="-2026517776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1917,7 +1917,71 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>投掷两次结果为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>HH</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>的似然函数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1950,7 +2014,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表3!$A$2:$A$12</c:f>
+              <c:f>似然函数!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1992,7 +2056,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表3!$B$2:$B$12</c:f>
+              <c:f>似然函数!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2042,11 +2106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2049545408"/>
-        <c:axId val="-2029155248"/>
+        <c:axId val="-2076804768"/>
+        <c:axId val="-2054943344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2049545408"/>
+        <c:axId val="-2076804768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2096,14 +2160,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029155248"/>
+        <c:crossAx val="-2054943344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2029155248"/>
+        <c:axId val="-2054943344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2153,7 +2217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049545408"/>
+        <c:crossAx val="-2076804768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2216,7 +2280,71 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>投掷三次结果为</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>HHT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>的似然函数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2239,7 +2367,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表3!$D$2:$D$12</c:f>
+              <c:f>似然函数!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2281,7 +2409,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表3!$E$2:$E$12</c:f>
+              <c:f>似然函数!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2331,11 +2459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2028413216"/>
-        <c:axId val="-2050806800"/>
+        <c:axId val="-2025399456"/>
+        <c:axId val="-2025088976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2028413216"/>
+        <c:axId val="-2025399456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2385,13 +2513,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050806800"/>
+        <c:crossAx val="-2025088976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2050806800"/>
+        <c:axId val="-2025088976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2028413216"/>
+        <c:crossAx val="-2025399456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6681,7 +6809,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6715,7 +6843,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6739,7 +6867,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:E31" si="0">_xlfn.NORM.DIST(A2, 0, 1, FALSE)</f>
+        <f t="shared" ref="B2:B31" si="0">_xlfn.NORM.DIST(A2, 0, 1, FALSE)</f>
         <v>1.3383022576488537E-4</v>
       </c>
       <c r="D2">
@@ -8042,7 +8170,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/_attachment/2017MachineLearning/图表.xlsx
+++ b/source/_attachment/2017MachineLearning/图表.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="25000" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="均匀分布" sheetId="1" r:id="rId1"/>
-    <sheet name="正态分布" sheetId="2" r:id="rId2"/>
-    <sheet name="似然函数" sheetId="3" r:id="rId3"/>
+    <sheet name="S形函数" sheetId="4" r:id="rId1"/>
+    <sheet name="均匀分布" sheetId="1" r:id="rId2"/>
+    <sheet name="正态分布" sheetId="2" r:id="rId3"/>
+    <sheet name="似然函数" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>x=</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +60,14 @@
   </si>
   <si>
     <t>x²*(1-x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g(z)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,6 +142,323 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>S形函数!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>g(z)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>S形函数!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>S形函数!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.993307149075715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.982013790037908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.952574126822433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.880797077977882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.731058578630005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.268941421369995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.119202922022118</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0474258731775668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0179862099620916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00669285092428485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2054961600"/>
+        <c:axId val="-2045206928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2054961600"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2045206928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2045206928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2054961600"/>
+        <c:crossesAt val="6.0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -195,11 +524,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129577360"/>
-        <c:axId val="-2027585632"/>
+        <c:axId val="-2049804272"/>
+        <c:axId val="-2080798864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129577360"/>
+        <c:axId val="-2049804272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -306,12 +635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2027585632"/>
+        <c:crossAx val="-2080798864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2027585632"/>
+        <c:axId val="-2080798864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -417,7 +746,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129577360"/>
+        <c:crossAx val="-2049804272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -468,7 +797,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1017,11 +1346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2050651840"/>
-        <c:axId val="-2051492496"/>
+        <c:axId val="-2053584976"/>
+        <c:axId val="-2135757520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2050651840"/>
+        <c:axId val="-2053584976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,13 +1404,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2051492496"/>
+        <c:crossAx val="-2135757520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2051492496"/>
+        <c:axId val="-2135757520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2050651840"/>
+        <c:crossAx val="-2053584976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1185,7 +1514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1744,11 +2073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2026517776"/>
-        <c:axId val="-2024979728"/>
+        <c:axId val="-2048955408"/>
+        <c:axId val="-2081666400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2026517776"/>
+        <c:axId val="-2048955408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,13 +2126,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2024979728"/>
+        <c:crossAx val="-2081666400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2024979728"/>
+        <c:axId val="-2081666400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +2181,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2026517776"/>
+        <c:crossAx val="-2048955408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1903,7 +2232,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2106,11 +2435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2076804768"/>
-        <c:axId val="-2054943344"/>
+        <c:axId val="-2085665344"/>
+        <c:axId val="-2049559952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2076804768"/>
+        <c:axId val="-2085665344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2126,6 +2455,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2160,14 +2490,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2054943344"/>
+        <c:crossAx val="-2049559952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2054943344"/>
+        <c:axId val="-2049559952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2217,7 +2547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076804768"/>
+        <c:crossAx val="-2085665344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2266,7 +2596,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2459,11 +2789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2025399456"/>
-        <c:axId val="-2025088976"/>
+        <c:axId val="-2049937536"/>
+        <c:axId val="-2090035264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2025399456"/>
+        <c:axId val="-2049937536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2513,13 +2843,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025088976"/>
+        <c:crossAx val="-2090035264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2025088976"/>
+        <c:axId val="-2090035264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2898,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025399456"/>
+        <c:crossAx val="-2049937536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2817,8 +3147,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2845,8 +3215,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2926,6 +3296,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2936,6 +3311,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2947,7 +3327,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2967,6 +3347,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2979,10 +3362,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3022,23 +3405,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3143,8 +3525,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3276,20 +3658,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3303,17 +3684,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5397,7 +5767,560 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5654,7 +6577,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5965,7 +6888,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6030,7 +6953,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -6478,7 +7401,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6541,6 +7464,113 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="工作表1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>g(z)</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>5</v>
+          </cell>
+          <cell r="B2">
+            <v>0.99330714907571527</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>4</v>
+          </cell>
+          <cell r="B3">
+            <v>0.98201379003790845</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4">
+            <v>0.95257412682243336</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>2</v>
+          </cell>
+          <cell r="B5">
+            <v>0.88079707797788231</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1</v>
+          </cell>
+          <cell r="B6">
+            <v>0.7310585786300049</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>0</v>
+          </cell>
+          <cell r="B7">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>-1</v>
+          </cell>
+          <cell r="B8">
+            <v>0.2689414213699951</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>-2</v>
+          </cell>
+          <cell r="B9">
+            <v>0.11920292202211755</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>-3</v>
+          </cell>
+          <cell r="B10">
+            <v>4.7425873177566781E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>-4</v>
+          </cell>
+          <cell r="B11">
+            <v>1.7986209962091559E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>-5</v>
+          </cell>
+          <cell r="B12">
+            <v>6.6928509242848554E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6806,6 +7836,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <f>1/(1+EXP(-A2))</f>
+        <v>0.99330714907571527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B12" si="0">1/(1+EXP(-A3))</f>
+        <v>0.98201379003790845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.95257412682243336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.88079707797788231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.7310585786300049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.2689414213699951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.11920292202211755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>4.7425873177566781E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.7986209962091559E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>6.6928509242848554E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6838,7 +7995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
@@ -8165,11 +9322,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
